--- a/user stories.xlsx
+++ b/user stories.xlsx
@@ -24,88 +24,148 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
-  <si>
-    <t>Features</t>
-  </si>
-  <si>
-    <t>SUBFEATURES</t>
-  </si>
-  <si>
-    <t>Add student</t>
-  </si>
-  <si>
-    <t>update information</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>Add staff</t>
-  </si>
-  <si>
-    <t>Delete staff</t>
-  </si>
-  <si>
-    <t>Delete student</t>
-  </si>
-  <si>
-    <t>Add salary</t>
-  </si>
-  <si>
-    <t>Delete salary</t>
-  </si>
-  <si>
-    <t>Update salary</t>
-  </si>
-  <si>
-    <t>Pay salary</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Expense</t>
   </si>
   <si>
-    <t xml:space="preserve">          Salary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Student</t>
-  </si>
-  <si>
-    <t>Expense of different month</t>
-  </si>
-  <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t>Student report</t>
-  </si>
-  <si>
-    <t>expense report</t>
-  </si>
-  <si>
-    <t>Room &amp; Fee</t>
-  </si>
-  <si>
-    <t>Add new room</t>
-  </si>
-  <si>
-    <t>Delete room</t>
-  </si>
-  <si>
-    <t>Add hostel fee</t>
-  </si>
-  <si>
-    <t>Update hostel fee</t>
+    <t>confirm student registration</t>
+  </si>
+  <si>
+    <t>Rooms</t>
+  </si>
+  <si>
+    <t>Add rooms</t>
+  </si>
+  <si>
+    <t>Furniture details</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Add employees based on categories</t>
+  </si>
+  <si>
+    <t>cleaning</t>
+  </si>
+  <si>
+    <t>mess</t>
+  </si>
+  <si>
+    <t>contractor</t>
+  </si>
+  <si>
+    <t>assistant warden</t>
+  </si>
+  <si>
+    <t>allocating  rooms with number of students</t>
+  </si>
+  <si>
+    <t>Delete employees</t>
+  </si>
+  <si>
+    <t>manage Salary</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>view student details in a particular block</t>
+  </si>
+  <si>
+    <t>menu creation</t>
+  </si>
+  <si>
+    <t>Fees management</t>
+  </si>
+  <si>
+    <t>View purchase details(include bill)</t>
+  </si>
+  <si>
+    <t>control registration by allocating rooms</t>
+  </si>
+  <si>
+    <t>control attendence</t>
+  </si>
+  <si>
+    <t>delete student</t>
+  </si>
+  <si>
+    <t>vacating</t>
+  </si>
+  <si>
+    <t>complients</t>
+  </si>
+  <si>
+    <t>view &amp; solve</t>
+  </si>
+  <si>
+    <t>Dues</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>Fees collection</t>
+  </si>
+  <si>
+    <t>establishment</t>
+  </si>
+  <si>
+    <t>current bill</t>
+  </si>
+  <si>
+    <t>comensation if any</t>
+  </si>
+  <si>
+    <t>Administration login</t>
+  </si>
+  <si>
+    <t>assistant warden login</t>
+  </si>
+  <si>
+    <t>Mess contractor login</t>
+  </si>
+  <si>
+    <t>view menu</t>
+  </si>
+  <si>
+    <t>purchasing(bill uploading)</t>
+  </si>
+  <si>
+    <t>Student login</t>
+  </si>
+  <si>
+    <t>registration</t>
+  </si>
+  <si>
+    <t>profile uploading &amp; view</t>
+  </si>
+  <si>
+    <t>view attendence</t>
+  </si>
+  <si>
+    <t>view mess bill</t>
+  </si>
+  <si>
+    <t>suggession</t>
+  </si>
+  <si>
+    <t>Sl.No</t>
+  </si>
+  <si>
+    <t>FEATURE</t>
+  </si>
+  <si>
+    <t>SUBFEATURE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +202,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -163,17 +230,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,367 +556,511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="37.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3"/>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="7">
+        <v>2</v>
+      </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="C17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="A20" s="7"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="6" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>3</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
+  <mergeCells count="65">
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/user stories.xlsx
+++ b/user stories.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t>Student login</t>
   </si>
   <si>
-    <t>registration</t>
-  </si>
-  <si>
     <t>profile uploading &amp; view</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>SUBFEATURE</t>
+  </si>
+  <si>
+    <t>Student registration</t>
   </si>
 </sst>
 </file>
@@ -230,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -243,10 +243,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -556,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,59 +579,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
@@ -635,22 +640,22 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
@@ -662,11 +667,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="1"/>
       <c r="G8" s="3"/>
       <c r="H8" t="s">
@@ -674,11 +679,11 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" t="s">
@@ -686,11 +691,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" t="s">
@@ -701,33 +706,33 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
@@ -736,70 +741,70 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="9">
         <v>2</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="3" t="s">
         <v>21</v>
       </c>
@@ -808,11 +813,11 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="3" t="s">
         <v>23</v>
       </c>
@@ -823,226 +828,193 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="3" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="3" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>3</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="3" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" t="s">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>4</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" t="s">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" t="s">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-    </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
@@ -1054,13 +1026,54 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
